--- a/trend_results/Rivers/MangarangioraatdsOrmondvilleSTP_9ecff7d2f5.xlsx
+++ b/trend_results/Rivers/MangarangioraatdsOrmondvilleSTP_9ecff7d2f5.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.277133918162159</v>
+        <v>0.722866081837841</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.584515913941121</v>
+        <v>0.415484086058879</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0115006052044886</v>
+        <v>0.988499394795511</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.0846079288496738</v>
+        <v>0.9153920711503259</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
